--- a/记事本/Note.xlsx
+++ b/记事本/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56386\Desktop\记事本\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiafu.shi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A917F-6F4E-4F4A-98C5-7F856272E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28FAFD-35B7-48F9-8D63-391A432CBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C#" sheetId="12" state="hidden" r:id="rId1"/>
@@ -25,32 +25,32 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Excel!$B$6:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Vocabulary!$F$2:$G$4</definedName>
-    <definedName name="A">Vocabulary!$B$4:$B$27</definedName>
-    <definedName name="B">Vocabulary!$B$29:$B$33</definedName>
-    <definedName name="C_">Vocabulary!$B$35:$B$55</definedName>
-    <definedName name="D">Vocabulary!$B$57:$B$70</definedName>
-    <definedName name="e">Vocabulary!$B$72:$B$78</definedName>
-    <definedName name="F">Vocabulary!$B$80:$B$85</definedName>
-    <definedName name="G">Vocabulary!$B$88:$B$90</definedName>
-    <definedName name="H">Vocabulary!$B$92:$B$100</definedName>
-    <definedName name="I">Vocabulary!$B$102:$B$118</definedName>
-    <definedName name="J">Vocabulary!$B$120:$B$121</definedName>
-    <definedName name="K">Vocabulary!$B$123:$B$124</definedName>
-    <definedName name="L">Vocabulary!$B$126:$B$127</definedName>
-    <definedName name="M">Vocabulary!$B$129:$B$138</definedName>
-    <definedName name="N">Vocabulary!$B$140:$B$141</definedName>
-    <definedName name="O">Vocabulary!$B$143:$B$149</definedName>
-    <definedName name="P">Vocabulary!$B$151:$B$171</definedName>
-    <definedName name="Q">Vocabulary!$B$173:$B$174</definedName>
-    <definedName name="R_">Vocabulary!$B$176:$B$188</definedName>
-    <definedName name="S">Vocabulary!$B$190:$B$213</definedName>
-    <definedName name="T">Vocabulary!$B$215:$B$227</definedName>
-    <definedName name="U">Vocabulary!$B$229:$B$237</definedName>
-    <definedName name="V">Vocabulary!$B$239:$B$246</definedName>
-    <definedName name="W">Vocabulary!$B$248:$B$252</definedName>
-    <definedName name="X">Vocabulary!$B$254:$B$255</definedName>
-    <definedName name="Y">Vocabulary!$B$257:$B$258</definedName>
-    <definedName name="Z">Vocabulary!$B$260:$B$261</definedName>
+    <definedName name="A">Vocabulary!$B$4:$B$29</definedName>
+    <definedName name="B">Vocabulary!$B$31:$B$36</definedName>
+    <definedName name="C_">Vocabulary!$B$38:$B$60</definedName>
+    <definedName name="D">Vocabulary!$B$62:$B$77</definedName>
+    <definedName name="e">Vocabulary!$B$79:$B$87</definedName>
+    <definedName name="F">Vocabulary!$B$89:$B$94</definedName>
+    <definedName name="G">Vocabulary!$B$97:$B$99</definedName>
+    <definedName name="H">Vocabulary!$B$101:$B$109</definedName>
+    <definedName name="I">Vocabulary!$B$111:$B$130</definedName>
+    <definedName name="J">Vocabulary!$B$132:$B$133</definedName>
+    <definedName name="K">Vocabulary!$B$135:$B$136</definedName>
+    <definedName name="L">Vocabulary!$B$138:$B$139</definedName>
+    <definedName name="M">Vocabulary!$B$141:$B$153</definedName>
+    <definedName name="N">Vocabulary!$B$155:$B$156</definedName>
+    <definedName name="O">Vocabulary!$B$158:$B$164</definedName>
+    <definedName name="P">Vocabulary!$B$166:$B$186</definedName>
+    <definedName name="Q">Vocabulary!$B$188:$B$189</definedName>
+    <definedName name="R_">Vocabulary!$B$191:$B$203</definedName>
+    <definedName name="S">Vocabulary!$B$205:$B$228</definedName>
+    <definedName name="T">Vocabulary!$B$230:$B$242</definedName>
+    <definedName name="U">Vocabulary!$B$244:$B$252</definedName>
+    <definedName name="V">Vocabulary!$B$254:$B$262</definedName>
+    <definedName name="W">Vocabulary!$B$264:$B$268</definedName>
+    <definedName name="X">Vocabulary!$B$270:$B$271</definedName>
+    <definedName name="Y">Vocabulary!$B$273:$B$274</definedName>
+    <definedName name="Z">Vocabulary!$B$276:$B$277</definedName>
     <definedName name="公式">Excel!$B$7:$B$40</definedName>
     <definedName name="快捷键">Excel!$B$42:$B$57</definedName>
     <definedName name="通用功能">CAD!$A$37:$A$49</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="832">
   <si>
     <t>Accelerate</t>
   </si>
@@ -2211,12 +2211,6 @@
     <t>Orientation</t>
   </si>
   <si>
-    <t>使最优化；充分利用(optimize的过去式)</t>
-  </si>
-  <si>
-    <t>Optimized</t>
-  </si>
-  <si>
     <t>不透明；不传导；暧昧</t>
   </si>
   <si>
@@ -2787,57 +2781,6 @@
     <t>可扩展标记语言</t>
   </si>
   <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>开闭原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单一职责原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里氏替换原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪米特法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口隔离原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖倒置原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2851,6 +2794,188 @@
   </si>
   <si>
     <t>缓存；高速缓存；把（数据）存入高速缓冲存储器；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播，散布；分布；弥散，扩散；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔偿，偿付；弥补，补偿；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化，充分利用；使...优化；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释，说明；口译；把……理解为；演绎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意，赞成；批准，通过；核准；喜欢，赞赏；</t>
+  </si>
+  <si>
+    <t>Vice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副的；代替的，代理的；堕落，邪恶；小毛病，坏习惯；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器，迭代程序；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调停者，解决纷争的人；中介物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接的；居间的；引起，形成；传递，传达调停，斡旋；影响……的发生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memento</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念品，引起回忆的东西；备忘录；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eternity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无穷无尽的时间；永恒，永久；永生；未来，来世；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下，使分离；脱离，摆脱；派遣，分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系上，贴上，连接；附带（条件)；附属，依附；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确实的，具体的；实在的，有形的；物质的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本部分，要素；元素；有点，少量；一群人；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Injection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注射；大量资金的投入；（液体）注入，喷入；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播送，播放；广播；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数量Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2858,6 +2983,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3570,7 +3698,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3620,9 +3748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3792,6 +3917,9 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3808,6 +3936,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4558,10 +4695,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4752,28 +4889,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>单一职责原则</c:v>
+                  <c:v>Task1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>开闭原则</c:v>
+                  <c:v>Task2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>里氏替换原则</c:v>
+                  <c:v>Task3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>迪米特法则</c:v>
+                  <c:v>Task4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>接口隔离原则</c:v>
+                  <c:v>Task5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>依赖倒置原则</c:v>
+                  <c:v>Task6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>数据结构</c:v>
+                  <c:v>Task7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>线程同步</c:v>
+                  <c:v>Task8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4847,28 +4984,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>单一职责原则</c:v>
+                  <c:v>Task1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>开闭原则</c:v>
+                  <c:v>Task2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>里氏替换原则</c:v>
+                  <c:v>Task3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>迪米特法则</c:v>
+                  <c:v>Task4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>接口隔离原则</c:v>
+                  <c:v>Task5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>依赖倒置原则</c:v>
+                  <c:v>Task6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>数据结构</c:v>
+                  <c:v>Task7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>线程同步</c:v>
+                  <c:v>Task8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6199,7 +6336,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18088,15 +18225,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18152,16 +18289,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>172278</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393258</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>65405</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>294723</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515703</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>221835</xdr:rowOff>
+      <xdr:rowOff>191355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18191,15 +18328,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18258,15 +18395,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18325,15 +18462,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18392,15 +18529,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18459,15 +18596,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18526,15 +18663,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18593,15 +18730,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>196850</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>387350</xdr:colOff>
+          <xdr:colOff>388620</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18657,16 +18794,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185527</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406507</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>86141</xdr:rowOff>
+      <xdr:rowOff>55661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>291548</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>512528</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>225287</xdr:rowOff>
+      <xdr:rowOff>194807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="$C$7">
       <xdr:nvSpPr>
@@ -18681,8 +18818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8408501" y="1378228"/>
-          <a:ext cx="715621" cy="397563"/>
+          <a:off x="9184747" y="1351061"/>
+          <a:ext cx="715621" cy="398226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18720,7 +18857,7 @@
               <a:ea typeface="等线"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>13%</a:t>
+            <a:t>0%</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400" b="1"/>
         </a:p>
@@ -18731,15 +18868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>21590</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18754,147 +18891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3486150" y="3149600"/>
-          <a:ext cx="3898900" cy="2260600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>工作任务：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Single</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> Resposibility Principle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Open Closed Principle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Liskov Substitution Principle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Law of Demeter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Interface Segregation Principle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
-            <a:buChar char="Ø"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>Dependence Inversion Principle</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8705850" y="2971800"/>
-          <a:ext cx="4273550" cy="3276600"/>
+          <a:off x="3130550" y="2954020"/>
+          <a:ext cx="4794250" cy="2227580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18930,10 +18928,190 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>已完成</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>StickyNote</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>feature: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新特性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>fix: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改问题</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>refactor: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重构代码</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>doc: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文档修改</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>style: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>代码格式修改，不是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>风格，例如代码规范整理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>test: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试、单元测试</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>chore: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他修改（杂项），比如构建顺序、依赖管理等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8902700" y="2992120"/>
+          <a:ext cx="3940810" cy="2189480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Completed Tasks</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -19482,23 +19660,23 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.25" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="1" max="1" width="120.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>340</v>
       </c>
@@ -19506,7 +19684,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>342</v>
       </c>
@@ -19514,7 +19692,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>346</v>
       </c>
@@ -19522,7 +19700,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>344</v>
       </c>
@@ -19530,7 +19708,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>348</v>
       </c>
@@ -19538,7 +19716,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>350</v>
       </c>
@@ -19546,7 +19724,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>352</v>
       </c>
@@ -19554,7 +19732,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>354</v>
       </c>
@@ -19562,7 +19740,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>356</v>
       </c>
@@ -19570,7 +19748,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>358</v>
       </c>
@@ -19578,22 +19756,22 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="78" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="77" t="s">
         <v>360</v>
       </c>
       <c r="F18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19608,2132 +19786,2268 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G261"/>
+  <dimension ref="B1:G277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.9140625" customWidth="1"/>
-    <col min="2" max="2" width="52.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.4140625" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.9140625" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>186</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="85" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="G2" s="84" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="84" t="str">
+        <f>IF($G$3="","",IFERROR(INDEX(A:C,MATCH($G$3,B:B,0),MATCH("注释",2:2,0)),"错误"))</f>
+        <v>流逝的；</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="F31" s="85"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="F32" s="85"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>785</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="2:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B78" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="2:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B88" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="2:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="2:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B107" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B108" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B109" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="2:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B110" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B111" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B112" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B113" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B114" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B120" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B121" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B125" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B126" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B127" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B128" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B129" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B130" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B131" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B132" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B133" s="31"/>
+      <c r="C133" s="32"/>
+    </row>
+    <row r="134" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B134" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B135" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B136" s="31"/>
+      <c r="C136" s="32"/>
+    </row>
+    <row r="137" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B137" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B138" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B139" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B140" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B141" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B142" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B143" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B144" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B145" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B146" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B148" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B149" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B150" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B151" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B152" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B153" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B154" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B155" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B156" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B157" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B159" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B160" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B161" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B162" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B163" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B164" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B166" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B167" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B168" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B169" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B170" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B171" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B172" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B174" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B175" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B176" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B177" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B178" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B179" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B180" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B181" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B182" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B183" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B184" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B185" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B186" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B187" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C187" s="7"/>
+    </row>
+    <row r="188" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B188" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B189" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B190" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C190" s="7"/>
+    </row>
+    <row r="191" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B191" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B192" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B193" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B194" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B195" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B196" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B197" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B198" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B199" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B200" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="C200" s="31" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B201" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="C201" s="31" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B202" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B203" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B204" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204" s="7"/>
+    </row>
+    <row r="205" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B205" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="31" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B206" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="C206" s="31" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B207" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B208" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B209" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B210" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B211" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B212" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="C212" s="31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B213" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B214" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="C214" s="31" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B215" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="C215" s="31" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B216" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="C216" s="31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B217" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C217" s="31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B218" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="C218" s="31" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B219" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="C219" s="31" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B220" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="C220" s="31" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B221" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="C221" s="31" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B222" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="C222" s="31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B223" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C223" s="31" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B224" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C224" s="31" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B225" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B226" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="C226" s="31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B227" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C227" s="31" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B228" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="C228" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B229" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C229" s="7"/>
+    </row>
+    <row r="230" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B230" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="C230" s="33" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B231" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="C231" s="31" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B232" s="31" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="85" t="str">
-        <f>IF($G$3="","",IFERROR(INDEX(A:C,MATCH($G$3,B:B,0),MATCH("注释",2:2,0)),"错误"))</f>
-        <v>临时雇员；临时的</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="F29" s="86"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
-        <v>799</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>800</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B69" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B70" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B71" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B72" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B73" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B74" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B76" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B78" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B79" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B80" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B81" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B82" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B83" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B84" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B85" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B86" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B87" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B88" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B89" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B90" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B92" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B93" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B94" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B96" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B97" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B98" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B99" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B100" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B101" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B102" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B104" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B105" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B106" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B107" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B108" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B109" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B110" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B111" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B113" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B114" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B115" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B116" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B117" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B118" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B119" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B120" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B121" s="32"/>
-      <c r="C121" s="33"/>
-    </row>
-    <row r="122" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B122" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B123" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B124" s="32"/>
-      <c r="C124" s="33"/>
-    </row>
-    <row r="125" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B125" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B126" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B127" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B128" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B129" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B130" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B131" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B132" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B133" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B134" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B135" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B136" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B137" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B138" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B139" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="140" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B140" s="32" t="s">
-        <v>584</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B141" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B142" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142" s="7"/>
-    </row>
-    <row r="143" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B143" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B144" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B145" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B146" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B147" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B148" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B149" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B150" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C150" s="7"/>
-    </row>
-    <row r="151" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B151" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B152" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B153" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B154" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B155" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B156" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B157" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B158" s="32" t="s">
-        <v>628</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B159" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B160" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B161" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B162" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B163" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="C163" s="32" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B164" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B165" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="C165" s="32" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B166" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="C166" s="32" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B167" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B168" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B169" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B170" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B171" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B172" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="C172" s="7"/>
-    </row>
-    <row r="173" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B173" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B174" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B175" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B176" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B177" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="C177" s="32" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B178" s="32" t="s">
+      <c r="C232" s="31" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B233" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="C233" s="31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B234" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C234" s="31" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B235" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="C235" s="31" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B236" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B237" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="C237" s="31" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B238" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="C238" s="31" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B239" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C239" s="74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B240" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C240" s="31" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B241" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="C241" s="31" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B242" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="C242" s="31" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C243" s="7"/>
+    </row>
+    <row r="244" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B244" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="C244" s="31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B245" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="C245" s="31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B246" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="C246" s="31" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B247" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C247" s="31" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B248" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="C248" s="31" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B249" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="C249" s="31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B250" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="C250" s="31" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B251" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="C251" s="31" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B252" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="C252" s="31" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C253" s="7"/>
+    </row>
+    <row r="254" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B254" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="C254" s="31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B255" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="C255" s="86" t="s">
         <v>797</v>
       </c>
-      <c r="C178" s="32" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B179" s="32" t="s">
-        <v>663</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B180" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B181" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B182" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B183" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B184" s="32" t="s">
-        <v>654</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B185" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B186" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B187" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B188" s="32" t="s">
-        <v>646</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B189" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C189" s="7"/>
-    </row>
-    <row r="190" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B190" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="32" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B191" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B192" s="32" t="s">
-        <v>708</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B193" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B194" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B195" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="C195" s="32" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B196" s="32" t="s">
-        <v>700</v>
-      </c>
-      <c r="C196" s="32" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B197" s="32" t="s">
-        <v>698</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B198" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B199" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="C199" s="32" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B200" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="C200" s="32" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B201" s="32" t="s">
-        <v>690</v>
-      </c>
-      <c r="C201" s="32" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B202" s="32" t="s">
-        <v>688</v>
-      </c>
-      <c r="C202" s="32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B203" s="32" t="s">
-        <v>686</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B204" s="32" t="s">
-        <v>684</v>
-      </c>
-      <c r="C204" s="32" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B205" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="C205" s="32" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B206" s="32" t="s">
-        <v>680</v>
-      </c>
-      <c r="C206" s="32" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B207" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="C207" s="32" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B208" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="C208" s="32" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B209" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="C209" s="32" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B210" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B211" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B212" s="32" t="s">
-        <v>670</v>
-      </c>
-      <c r="C212" s="32" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B213" s="32" t="s">
-        <v>668</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B214" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C214" s="7"/>
-    </row>
-    <row r="215" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B215" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C215" s="34" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B216" s="32" t="s">
-        <v>714</v>
-      </c>
-      <c r="C216" s="32" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B217" s="32" t="s">
-        <v>716</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B218" s="32" t="s">
-        <v>718</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B219" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="C219" s="32" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B220" s="32" t="s">
-        <v>722</v>
-      </c>
-      <c r="C220" s="32" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B221" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="C221" s="32" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B222" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="C222" s="32" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B223" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="C223" s="32" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B224" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C224" s="75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B225" s="32" t="s">
-        <v>730</v>
-      </c>
-      <c r="C225" s="32" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B226" s="32" t="s">
-        <v>732</v>
-      </c>
-      <c r="C226" s="32" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B227" s="32" t="s">
-        <v>734</v>
-      </c>
-      <c r="C227" s="32" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B228" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C228" s="7"/>
-    </row>
-    <row r="229" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B229" s="32" t="s">
-        <v>736</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B230" s="32" t="s">
-        <v>738</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B231" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="C231" s="32" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B232" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="C232" s="32" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B233" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="C233" s="32" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B234" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="C234" s="32" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B235" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="C235" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B236" s="32" t="s">
-        <v>750</v>
-      </c>
-      <c r="C236" s="32" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B237" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="C237" s="32" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B238" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C238" s="7"/>
-    </row>
-    <row r="239" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B239" s="32" t="s">
+    </row>
+    <row r="256" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B256" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="C239" s="32" t="s">
+      <c r="C256" s="31" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B240" s="32" t="s">
+    <row r="257" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B257" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="C240" s="32" t="s">
+      <c r="C257" s="31" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B241" s="32" t="s">
+    <row r="258" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B258" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="C241" s="32" t="s">
+      <c r="C258" s="31" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B242" s="32" t="s">
+    <row r="259" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B259" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="C242" s="32" t="s">
+      <c r="C259" s="31" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B243" s="32" t="s">
+    <row r="260" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B260" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="C243" s="32" t="s">
+      <c r="C260" s="31" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B244" s="32" t="s">
+    <row r="261" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B261" s="31" t="s">
         <v>764</v>
       </c>
-      <c r="C244" s="32" t="s">
+      <c r="C261" s="31" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B245" s="32" t="s">
+    <row r="262" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B262" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="C245" s="32" t="s">
+      <c r="C262" s="31" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B246" s="32" t="s">
+    <row r="263" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C263" s="7"/>
+    </row>
+    <row r="264" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B264" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="C246" s="32" t="s">
+      <c r="C264" s="31" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B247" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C247" s="7"/>
-    </row>
-    <row r="248" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B248" s="32" t="s">
+    <row r="265" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B265" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="C248" s="32" t="s">
+      <c r="C265" s="31" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B249" s="32" t="s">
+    <row r="266" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B266" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="C249" s="32" t="s">
+      <c r="C266" s="31" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B250" s="32" t="s">
+    <row r="267" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B267" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C250" s="32" t="s">
+      <c r="C267" s="31" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B251" s="32" t="s">
+    <row r="268" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B268" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="C251" s="32" t="s">
+      <c r="C268" s="31" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B252" s="32" t="s">
+    <row r="269" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C269" s="7"/>
+    </row>
+    <row r="270" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B270" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="C252" s="32" t="s">
+      <c r="C270" s="35" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B253" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C253" s="7"/>
-    </row>
-    <row r="254" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B254" s="32" t="s">
+    <row r="271" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B271" s="31" t="s">
         <v>780</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C271" s="35" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B255" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="C255" s="36" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B256" s="31" t="s">
+    <row r="272" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C256" s="7"/>
-    </row>
-    <row r="257" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B257" s="32"/>
-      <c r="C257" s="36"/>
-    </row>
-    <row r="258" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B258" s="32"/>
-      <c r="C258" s="36"/>
-    </row>
-    <row r="259" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B259" s="31" t="s">
+      <c r="C272" s="7"/>
+    </row>
+    <row r="273" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B273" s="31"/>
+      <c r="C273" s="35"/>
+    </row>
+    <row r="274" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B274" s="31"/>
+      <c r="C274" s="35"/>
+    </row>
+    <row r="275" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C259" s="7"/>
-    </row>
-    <row r="260" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B260" s="32"/>
-      <c r="C260" s="36"/>
-    </row>
-    <row r="261" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B261" s="32"/>
-      <c r="C261" s="36"/>
+      <c r="C275" s="7"/>
+    </row>
+    <row r="276" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B276" s="31"/>
+      <c r="C276" s="35"/>
+    </row>
+    <row r="277" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B277" s="31"/>
+      <c r="C277" s="35"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C120">
-    <sortCondition ref="B22:B120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C132">
+    <sortCondition ref="B25:B132"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -21760,163 +22074,163 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.08203125" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" customWidth="1"/>
-    <col min="4" max="4" width="8.9140625" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
@@ -21933,689 +22247,689 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:C86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="103.77734375" style="28" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.75" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+    <row r="1" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="2:3" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="68" t="str">
         <f>IF(C3="","",VLOOKUP(C3,B:C,2,0))</f>
         <v>Ctrl+Shift+;(输入时的时间)</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-    </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="2:3" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87" t="s">
         <v>219</v>
       </c>
       <c r="C6" s="88"/>
     </row>
-    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+    <row r="18" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="89" t="s">
         <v>227</v>
       </c>
       <c r="C41" s="89"/>
     </row>
-    <row r="42" spans="2:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="47" t="s">
+    <row r="42" spans="2:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="40" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="40" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
+    <row r="45" spans="2:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="42" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="42" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="39" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="39" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="39" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="39" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="39" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="40" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="53" t="s">
+    <row r="57" spans="2:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C58" s="88"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="55" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="43" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="43" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="43" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="43" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="43" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="43" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="43" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="43" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="43" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="43" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C71" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B72" s="43" t="s">
+    <row r="72" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B72" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="43" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="43" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C75" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="43" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="43" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="43" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="B79" s="43" t="s">
+    <row r="79" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B79" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="B80" s="42" t="s">
+    <row r="80" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="42" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="42" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="37" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="42" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="43" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="43" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="43" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -22652,35 +22966,35 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.08203125" customWidth="1"/>
+    <col min="1" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
@@ -22701,500 +23015,500 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="58" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.4140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.4140625" customWidth="1"/>
-    <col min="6" max="6" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.9140625" customWidth="1"/>
-    <col min="9" max="9" width="46.4140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
     </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="70"/>
+      <c r="E2" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="E3" s="61" t="s">
+      <c r="C3" s="70"/>
+      <c r="E3" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="E4" s="61" t="s">
+      <c r="C4" s="70"/>
+      <c r="E4" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="62" t="str">
+      <c r="F4" s="61" t="str">
         <f>IF($F$3="","",IFERROR(VLOOKUP($F$3,A:C,2,0),"错误"))</f>
         <v>BR</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="E5" s="61" t="s">
+      <c r="C5" s="70"/>
+      <c r="E5" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="63" t="str">
+      <c r="F5" s="62" t="str">
         <f>IF($F$3="","",IFERROR((VLOOKUP($F$3,A:C,3,0)),"错误"))</f>
         <v>逆时针打断,保留顺时针</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="C6" s="70"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="C8" s="70"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="71"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="C9" s="70"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="71"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="C10" s="70"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="71"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="C11" s="70"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="71"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="C12" s="70"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="71"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="C13" s="70"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="71"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="C14" s="70"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="71"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="C15" s="70"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="71"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
+      <c r="C16" s="70"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="70" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="71"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="C18" s="70"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="71"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="C19" s="70"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="71"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="C20" s="70"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="71"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="C21" s="70"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="70" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="70" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+      <c r="C24" s="70"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="71"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
+      <c r="C25" s="70"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="71"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
+      <c r="C26" s="70"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="70" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="71"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="C28" s="70"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="71"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="C29" s="70"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="71"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="C30" s="70"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="71"/>
-    </row>
-    <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
+      <c r="C31" s="70"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="71"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+      <c r="C33" s="70"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="C34" s="71"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
+      <c r="C34" s="70"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="71"/>
-    </row>
-    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="70"/>
+    </row>
+    <row r="36" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A36" s="91" t="s">
         <v>332</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="72" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="71"/>
+      <c r="C37" s="71" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="72" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="71" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="72" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="72" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="74" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="73" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="72" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="72" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72" t="s">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="72" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="72" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
         <v>308</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="72" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72" t="s">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="72" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="71" t="s">
         <v>315</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72" t="s">
+      <c r="B47" s="71"/>
+      <c r="C47" s="71" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72" t="s">
+      <c r="B48" s="71"/>
+      <c r="C48" s="71" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="72" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71" t="s">
         <v>329</v>
       </c>
     </row>
@@ -23222,24 +23536,24 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="16.9140625" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="93" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="92" t="s">
         <v>202</v>
       </c>
@@ -23248,7 +23562,7 @@
       <c r="F2" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="94" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -23261,44 +23575,44 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="19">
         <f ca="1">TODAY()</f>
-        <v>45164</v>
+        <v>45226</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="G3" s="22">
-        <v>45168</v>
+        <v>821</v>
+      </c>
+      <c r="G3" s="95">
+        <v>45229</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <f t="shared" ref="J3:J10" si="0">IF(I3=TRUE,1,IF($C$3&gt;=G3,0,"⏱"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="str">
+        <f t="shared" ref="J3:J10" ca="1" si="0">IF(I3=TRUE,1,IF($C$3&gt;=G3,0,"⏱"))</f>
+        <v>⏱</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C4" s="13">
         <f>COUNTIF(I:I,TRUE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="G4" s="22">
-        <v>45172</v>
+        <v>822</v>
+      </c>
+      <c r="G4" s="95">
+        <v>45233</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="13" t="b">
@@ -23309,20 +23623,20 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>205</v>
       </c>
       <c r="C5" s="13">
         <f>COUNTIF(I:I,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="G5" s="22">
-        <v>45185</v>
+        <v>823</v>
+      </c>
+      <c r="G5" s="95">
+        <v>45246</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="13" t="b">
@@ -23333,7 +23647,7 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>206</v>
       </c>
@@ -23342,11 +23656,9 @@
         <v>8</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="G6" s="22">
-        <v>45192</v>
+      <c r="F6" s="16"/>
+      <c r="G6" s="95">
+        <v>45253</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="13" t="b">
@@ -23357,18 +23669,18 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C7" s="14">
         <f>C4/C6</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="22">
-        <v>45207</v>
+      <c r="G7" s="95">
+        <v>45268</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="13" t="b">
@@ -23379,18 +23691,18 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C8" s="15">
         <f>1-C7</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="22">
-        <v>45210</v>
+      <c r="G8" s="95">
+        <v>45271</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="13" t="b">
@@ -23401,11 +23713,11 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="22">
-        <v>45222</v>
+      <c r="G9" s="95">
+        <v>45283</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="13" t="b">
@@ -23416,11 +23728,11 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="17"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="22">
-        <v>45229</v>
+      <c r="G10" s="95">
+        <v>45290</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="13" t="b">
@@ -23431,20 +23743,20 @@
         <v>⏱</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="82"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="86" t="s">
+    <row r="11" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="81"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="81">
         <v>35817</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="86" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="85" t="s">
         <v>370</v>
       </c>
       <c r="C14">
@@ -23452,29 +23764,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="85" t="s">
         <v>371</v>
       </c>
       <c r="C15">
         <f ca="1">DATEDIF($C$13,TODAY(),"m")</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="85" t="s">
         <v>372</v>
       </c>
       <c r="C16">
         <f ca="1">DATEDIF($C$13,TODAY(),"d")</f>
-        <v>9347</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
-      <c r="C17" s="83">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="85"/>
+      <c r="C17" s="82">
         <f ca="1">NOW()</f>
-        <v>45164.973391782405</v>
+        <v>45226.609785185188</v>
       </c>
     </row>
   </sheetData>
@@ -23505,15 +23817,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23527,15 +23839,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23549,15 +23861,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23571,15 +23883,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23593,15 +23905,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23615,15 +23927,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23637,15 +23949,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23659,15 +23971,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>196850</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>6350</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>387350</xdr:colOff>
+                    <xdr:colOff>388620</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>254000</xdr:rowOff>
+                    <xdr:rowOff>251460</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23686,24 +23998,24 @@
   <dimension ref="B5:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>209</v>
       </c>
@@ -23725,21 +24037,21 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
-        <v>788</v>
-      </c>
-      <c r="C7" s="80">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="78" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" s="79">
         <v>44440</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <v>14</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80">
         <f t="shared" ref="E7:E14" si="0">C7+D7-1</f>
         <v>44453</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>0.1</v>
       </c>
       <c r="G7" s="4">
@@ -23749,21 +24061,21 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="C8" s="24">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" s="23">
         <v>44442</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>19</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>44460</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>0.2</v>
       </c>
       <c r="G8" s="4">
@@ -23773,21 +24085,21 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="C9" s="24">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="C9" s="23">
         <v>44445</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>25</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>44469</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>0.30000000000000004</v>
       </c>
       <c r="G9" s="4">
@@ -23797,21 +24109,21 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="C10" s="24">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="23">
         <v>44452</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>22</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>44473</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>0.4</v>
       </c>
       <c r="G10" s="4">
@@ -23821,21 +24133,21 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="C11" s="24">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="C11" s="23">
         <v>44457</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>29</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>0.5</v>
       </c>
       <c r="G11" s="4">
@@ -23845,21 +24157,21 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="C12" s="24">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="C12" s="23">
         <v>44459</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>31</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>0.6</v>
       </c>
       <c r="G12" s="4">
@@ -23869,21 +24181,21 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>793</v>
-      </c>
-      <c r="C13" s="24">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>830</v>
+      </c>
+      <c r="C13" s="23">
         <v>44462</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>33</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>44494</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>0.70000000000000007</v>
       </c>
       <c r="G13" s="4">
@@ -23893,21 +24205,21 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="C14" s="24">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C14" s="23">
         <v>44469</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>45</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>0.8</v>
       </c>
       <c r="G14" s="4">
@@ -23917,12 +24229,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
